--- a/templates/CoLDP flat.xlsx
+++ b/templates/CoLDP flat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/code/col/coldp/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFDA275-48B9-DA44-9799-82086E78F86A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB109390-4B49-7040-9469-7CE48E1E0F12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28960" windowHeight="16880" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4280" yWindow="2520" windowWidth="28960" windowHeight="16880" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>taxonID</t>
   </si>
@@ -252,20 +252,20 @@
     <t>parentID</t>
   </si>
   <si>
-    <t>appendedNamePhrase</t>
-  </si>
-  <si>
     <t>scrutinizer</t>
   </si>
   <si>
     <t>scrutinizerDate</t>
+  </si>
+  <si>
+    <t>appendedPhrase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -276,6 +276,11 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -299,11 +304,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -985,8 +991,8 @@
       <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>72</v>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="E1" t="s">
         <v>38</v>
@@ -998,10 +1004,10 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
         <v>73</v>
-      </c>
-      <c r="I1" t="s">
-        <v>74</v>
       </c>
       <c r="J1" t="s">
         <v>39</v>
@@ -1034,32 +1040,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="1025" width="11.5"/>
+    <col min="1" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="1028" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/templates/CoLDP flat.xlsx
+++ b/templates/CoLDP flat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/code/col/coldp/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB109390-4B49-7040-9469-7CE48E1E0F12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A992F901-A787-C54D-904A-C49BA628F81E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="2520" windowWidth="28960" windowHeight="16880" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="28960" windowHeight="16880" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="10" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="TypeMaterial" sheetId="11" r:id="rId4"/>
     <sheet name="Taxon" sheetId="8" r:id="rId5"/>
     <sheet name="Synonym" sheetId="7" r:id="rId6"/>
-    <sheet name="Distribution" sheetId="2" r:id="rId7"/>
-    <sheet name="Media" sheetId="5" r:id="rId8"/>
-    <sheet name="VernacularName" sheetId="9" r:id="rId9"/>
-    <sheet name="Reference" sheetId="6" r:id="rId10"/>
+    <sheet name="TaxonRelation" sheetId="12" r:id="rId7"/>
+    <sheet name="Distribution" sheetId="2" r:id="rId8"/>
+    <sheet name="Media" sheetId="5" r:id="rId9"/>
+    <sheet name="VernacularName" sheetId="9" r:id="rId10"/>
+    <sheet name="Reference" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
   <si>
     <t>taxonID</t>
   </si>
@@ -259,6 +260,9 @@
   </si>
   <si>
     <t>appendedPhrase</t>
+  </si>
+  <si>
+    <t>relatedTaxonID</t>
   </si>
 </sst>
 </file>
@@ -729,6 +733,57 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="9" width="37" customWidth="1"/>
+    <col min="10" max="1025" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -1042,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1093,6 +1148,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED3E88C-C718-344C-8ECD-1CFC7C1D5318}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="5" width="46.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1133,7 +1226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1184,55 +1277,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="9" width="37" customWidth="1"/>
-    <col min="10" max="1025" width="11.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/templates/CoLDP flat.xlsx
+++ b/templates/CoLDP flat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/code/col/coldp/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A992F901-A787-C54D-904A-C49BA628F81E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB236EB-469B-7349-A5A1-B3269B43FB6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="28960" windowHeight="16880" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="28960" windowHeight="16880" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="10" r:id="rId1"/>
@@ -259,10 +259,10 @@
     <t>scrutinizerDate</t>
   </si>
   <si>
-    <t>appendedPhrase</t>
-  </si>
-  <si>
     <t>relatedTaxonID</t>
+  </si>
+  <si>
+    <t>namePhrase</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1047,7 +1047,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
         <v>38</v>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1119,7 +1119,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
         <v>38</v>
@@ -1151,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED3E88C-C718-344C-8ECD-1CFC7C1D5318}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>

--- a/templates/CoLDP flat.xlsx
+++ b/templates/CoLDP flat.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/code/col/coldp/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/gdower_illinois_edu/Documents/Documents/coldp-master/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB236EB-469B-7349-A5A1-B3269B43FB6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{82B2783F-F39F-446D-895D-D7B3332F684E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{039428AE-080F-40F9-A22F-F84690AF5A2F}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="28960" windowHeight="16880" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="30750" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="10" r:id="rId1"/>
-    <sheet name="Name" sheetId="3" r:id="rId2"/>
-    <sheet name="NameRelation" sheetId="4" r:id="rId3"/>
-    <sheet name="TypeMaterial" sheetId="11" r:id="rId4"/>
-    <sheet name="Taxon" sheetId="8" r:id="rId5"/>
-    <sheet name="Synonym" sheetId="7" r:id="rId6"/>
-    <sheet name="TaxonRelation" sheetId="12" r:id="rId7"/>
-    <sheet name="Distribution" sheetId="2" r:id="rId8"/>
-    <sheet name="Media" sheetId="5" r:id="rId9"/>
-    <sheet name="VernacularName" sheetId="9" r:id="rId10"/>
-    <sheet name="Reference" sheetId="6" r:id="rId11"/>
+    <sheet name="Distribution" sheetId="2" r:id="rId2"/>
+    <sheet name="Media" sheetId="5" r:id="rId3"/>
+    <sheet name="Name" sheetId="3" r:id="rId4"/>
+    <sheet name="NameReference" sheetId="14" r:id="rId5"/>
+    <sheet name="NameRelation" sheetId="4" r:id="rId6"/>
+    <sheet name="Reference" sheetId="6" r:id="rId7"/>
+    <sheet name="SpeciesEstimate" sheetId="15" r:id="rId8"/>
+    <sheet name="SpeciesInteraction" sheetId="16" r:id="rId9"/>
+    <sheet name="Synonym" sheetId="7" r:id="rId10"/>
+    <sheet name="Taxon" sheetId="8" r:id="rId11"/>
+    <sheet name="TaxonConceptRelation" sheetId="13" r:id="rId12"/>
+    <sheet name="Treatment" sheetId="17" r:id="rId13"/>
+    <sheet name="TypeMaterial" sheetId="12" r:id="rId14"/>
+    <sheet name="VernacularName" sheetId="9" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
   <si>
     <t>taxonID</t>
   </si>
@@ -88,9 +92,6 @@
     <t>cultivarEpithet</t>
   </si>
   <si>
-    <t>publishedInID</t>
-  </si>
-  <si>
     <t>publishedInPage</t>
   </si>
   <si>
@@ -148,6 +149,9 @@
     <t>doi</t>
   </si>
   <si>
+    <t>parentID</t>
+  </si>
+  <si>
     <t>provisional</t>
   </si>
   <si>
@@ -163,9 +167,6 @@
     <t>temporalRangeEnd</t>
   </si>
   <si>
-    <t>lifezone</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -175,9 +176,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>lifeStage</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
@@ -187,12 +185,21 @@
     <t>organisations</t>
   </si>
   <si>
+    <t>org1</t>
+  </si>
+  <si>
+    <t>org2</t>
+  </si>
+  <si>
     <t>contact</t>
   </si>
   <si>
     <t>authorsAndEditors</t>
   </si>
   <si>
+    <t>author1</t>
+  </si>
+  <si>
     <t>geographicScope</t>
   </si>
   <si>
@@ -211,58 +218,112 @@
     <t>logo</t>
   </si>
   <si>
-    <t>org1</t>
-  </si>
-  <si>
-    <t>org2</t>
-  </si>
-  <si>
-    <t>author1</t>
-  </si>
-  <si>
-    <t>author2</t>
-  </si>
-  <si>
     <t>uninomial</t>
   </si>
   <si>
-    <t>originalNameId</t>
+    <t>locality</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
   <si>
     <t>collector</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>locality</t>
-  </si>
-  <si>
-    <t>parentID</t>
+    <t>scrutinizerDate</t>
   </si>
   <si>
     <t>scrutinizer</t>
   </si>
   <si>
-    <t>scrutinizerDate</t>
-  </si>
-  <si>
     <t>relatedTaxonID</t>
   </si>
   <si>
     <t>namePhrase</t>
+  </si>
+  <si>
+    <t>basionymID</t>
+  </si>
+  <si>
+    <t>publishedInPageLink</t>
+  </si>
+  <si>
+    <t>scrutinizerID</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>areaID</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>relatedTaxonScientificName</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>subgenus</t>
+  </si>
+  <si>
+    <t>subtribe</t>
+  </si>
+  <si>
+    <t>tribe</t>
+  </si>
+  <si>
+    <t>subfamily</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>superfamily</t>
+  </si>
+  <si>
+    <t>suborder</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>subclass</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>subphylum</t>
+  </si>
+  <si>
+    <t>phylum</t>
+  </si>
+  <si>
+    <t>kingdom</t>
   </si>
 </sst>
 </file>
@@ -627,104 +688,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874A1130-FDCD-334E-85AE-CC536E71BEBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783139A7-2AD3-004C-8D2E-1BD255F6DEAE}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -733,44 +791,46 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="37" customWidth="1"/>
-    <col min="10" max="1025" width="11.5"/>
+    <col min="2" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="1026" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
       <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -784,49 +844,113 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="35" customWidth="1"/>
-    <col min="10" max="1025" width="11.5"/>
+    <col min="1" max="32" width="21" customWidth="1"/>
+    <col min="33" max="1027" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -839,74 +963,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R1"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C36694E-7C00-654B-858B-CC0C08B33314}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="21" width="20.5" customWidth="1"/>
-    <col min="22" max="1025" width="11.5"/>
+    <col min="1" max="5" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
         <v>21</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -919,35 +1003,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71230ADE-1B2D-470F-B419-174EB35AA7FC}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6BB32B-4EE1-E242-AD06-60BB0A8C9265}">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="46.1640625" customWidth="1"/>
-    <col min="6" max="1025" width="11.5"/>
+    <col min="1" max="8" width="37" customWidth="1"/>
+    <col min="9" max="1024" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -960,127 +1144,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2BE15F-D6B7-6C48-9315-BCCFFF3FE266}">
-  <dimension ref="A1:O1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="29" width="25.1640625" customWidth="1"/>
-    <col min="30" max="1025" width="11.5"/>
+    <col min="1" max="6" width="50.85546875" customWidth="1"/>
+    <col min="7" max="1026" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s">
         <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1093,48 +1191,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="1028" width="11.5"/>
+    <col min="1" max="9" width="29.85546875" customWidth="1"/>
+    <col min="10" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1147,32 +1242,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED3E88C-C718-344C-8ECD-1CFC7C1D5318}">
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="46.1640625" customWidth="1"/>
+    <col min="1" max="19" width="20.42578125" customWidth="1"/>
+    <col min="20" max="1023" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1185,35 +1325,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C26274-E9A2-4A95-8870-89CD2D167844}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="50.83203125" customWidth="1"/>
-    <col min="6" max="1025" width="11.5"/>
+    <col min="1" max="5" width="46.140625" customWidth="1"/>
+    <col min="6" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1226,46 +1401,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="29.83203125" customWidth="1"/>
-    <col min="10" max="1025" width="11.5"/>
+    <col min="1" max="9" width="35" customWidth="1"/>
+    <col min="10" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1277,4 +1453,77 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BC13BA-12B6-40DB-8301-2251B85672B0}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE3541A-20F6-4EE4-BDC4-51F07AEE4DEE}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>